--- a/MainTop/13.08.2024/2 недели макс с 01.08.2024 по 13.08.2024/печать_макс_h2.xlsx
+++ b/MainTop/13.08.2024/2 недели макс с 01.08.2024 по 13.08.2024/печать_макс_h2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="108">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -314,6 +314,36 @@
   </si>
   <si>
     <t xml:space="preserve">OZN1054576404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Дисней мальчики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1054600320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Гарри Поттер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1244897302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки белые 30шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1215540233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Человек-Паук</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1214578624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Хаги Ваги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1235284831</t>
   </si>
 </sst>
 </file>
@@ -444,8 +474,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1104,11 +1134,76 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/MainTop/13.08.2024/2 недели макс с 01.08.2024 по 13.08.2024/печать_макс_h2.xlsx
+++ b/MainTop/13.08.2024/2 недели макс с 01.08.2024 по 13.08.2024/печать_макс_h2.xlsx
@@ -474,8 +474,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1098,9 +1098,6 @@
       </c>
       <c r="C44" s="0" t="n">
         <v>36</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>519</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>93</v>
